--- a/Raj Chudasama/2022-12-20/Home2 Suites by Hilton Dallas Grand Prairie/arrivalllandscape_letter.xlsx
+++ b/Raj Chudasama/2022-12-20/Home2 Suites by Hilton Dallas Grand Prairie/arrivalllandscape_letter.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="49">
   <si>
     <t>Guest Name</t>
   </si>
@@ -34,22 +34,19 @@
     <t>Arrival Date</t>
   </si>
   <si>
-    <t>Depart Date</t>
-  </si>
-  <si>
     <t>Room Type</t>
   </si>
   <si>
-    <t>Carver/Michael</t>
-  </si>
-  <si>
-    <t>Curtis/Joshua</t>
-  </si>
-  <si>
-    <t>DANKEL/MARK</t>
-  </si>
-  <si>
-    <t>GILBERT/HOLLIE</t>
+    <t xml:space="preserve">Carver/Michael </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curtis/Joshua </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DANKEL/MARK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS GILBERT/HOLLIE </t>
   </si>
   <si>
     <t>Hulme/Casey</t>
@@ -58,70 +55,85 @@
     <t>Larson/Clinton</t>
   </si>
   <si>
-    <t>MADRID/DENEILLE</t>
-  </si>
-  <si>
-    <t>Morton/Katie</t>
+    <t xml:space="preserve">MADRID/DENEILLE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS Morton/Katie </t>
+  </si>
+  <si>
+    <t>Rambo/Anita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAMBO/TOMMIE </t>
+  </si>
+  <si>
+    <t>Stott/Todd</t>
   </si>
   <si>
     <t>Thornton/Linda</t>
   </si>
   <si>
-    <t>Rambo/Anita</t>
-  </si>
-  <si>
-    <t>RAMBO/TOMMIE</t>
-  </si>
-  <si>
-    <t>Stott/Todd</t>
-  </si>
-  <si>
-    <t>THORNTON/THOMAS</t>
-  </si>
-  <si>
-    <t>WILSON/DAVID KENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> B </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> G </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> D </t>
-  </si>
-  <si>
-    <t>Expedia Adv Purch</t>
-  </si>
-  <si>
-    <t>LOCKHEED MARTIN</t>
+    <t xml:space="preserve">MR THORNTON/THOMAS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WILSON/DAVID KENT </t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXPEDIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expedia Adv Purch </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOCKHEED MARTIN </t>
   </si>
   <si>
     <t>$129.00</t>
   </si>
   <si>
+    <t>$119.97</t>
+  </si>
+  <si>
+    <t>$120.00</t>
+  </si>
+  <si>
+    <t>$69.50</t>
+  </si>
+  <si>
     <t>$122.00</t>
   </si>
   <si>
     <t>$0.00</t>
   </si>
   <si>
-    <t>$120.00</t>
-  </si>
-  <si>
-    <t>1705403069</t>
-  </si>
-  <si>
-    <t>1666253750</t>
+    <t>$129.01</t>
+  </si>
+  <si>
+    <t>$109.69</t>
+  </si>
+  <si>
+    <t>$152.59</t>
+  </si>
+  <si>
+    <t>LV0</t>
   </si>
   <si>
     <t>L-H1P</t>
   </si>
   <si>
-    <t>773892631</t>
+    <t>L-F4F</t>
   </si>
   <si>
     <t>S-AAA</t>
@@ -130,49 +142,25 @@
     <t>L-3XF</t>
   </si>
   <si>
-    <t>DISCOUNTS</t>
-  </si>
-  <si>
     <t>L-SRR</t>
   </si>
   <si>
-    <t>551643593</t>
-  </si>
-  <si>
-    <t>Purch</t>
-  </si>
-  <si>
-    <t>RATE</t>
-  </si>
-  <si>
-    <t>12/20/2022</t>
-  </si>
-  <si>
-    <t>883</t>
-  </si>
-  <si>
-    <t>858</t>
-  </si>
-  <si>
-    <t>839</t>
-  </si>
-  <si>
-    <t>OTHER</t>
+    <t>S-AH1</t>
+  </si>
+  <si>
+    <t>L-LKM</t>
+  </si>
+  <si>
+    <t>12/22/2022</t>
+  </si>
+  <si>
+    <t>NKJ</t>
   </si>
   <si>
     <t>NQJ</t>
   </si>
   <si>
-    <t>NKJ</t>
-  </si>
-  <si>
-    <t>Nig</t>
-  </si>
-  <si>
-    <t>877</t>
-  </si>
-  <si>
-    <t>COR</t>
+    <t>NQJQG</t>
   </si>
 </sst>
 </file>
@@ -537,264 +525,333 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>38</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
       </c>
       <c r="H4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>11</v>
+      <c r="A5" s="1">
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
       </c>
       <c r="H5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" t="s">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="E6" t="s">
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
         <v>36</v>
-      </c>
-      <c r="F6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" t="s">
-        <v>40</v>
       </c>
       <c r="F12" t="s">
         <v>43</v>
       </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
       <c r="H12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" t="s">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
         <v>20</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C15" t="s">
         <v>24</v>
       </c>
-      <c r="E14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>27</v>
       </c>
-      <c r="D15" t="s">
-        <v>31</v>
-      </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Raj Chudasama/2022-12-20/Home2 Suites by Hilton Dallas Grand Prairie/arrivalllandscape_letter.xlsx
+++ b/Raj Chudasama/2022-12-20/Home2 Suites by Hilton Dallas Grand Prairie/arrivalllandscape_letter.xlsx
@@ -518,339 +518,297 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
         <v>21</v>
       </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
         <v>22</v>
       </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
       <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
         <v>29</v>
       </c>
-      <c r="F3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>27</v>
-      </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" t="s">
         <v>46</v>
       </c>
     </row>
